--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value418.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value418.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.142787522149808</v>
+        <v>1.737058520317078</v>
       </c>
       <c r="B1">
-        <v>1.822326472511696</v>
+        <v>3.80322003364563</v>
       </c>
       <c r="C1">
-        <v>2.782032574128892</v>
+        <v>2.095124244689941</v>
       </c>
       <c r="D1">
-        <v>2.33577573228957</v>
+        <v>1.484809756278992</v>
       </c>
       <c r="E1">
-        <v>0.6455740886407713</v>
+        <v>1.268623471260071</v>
       </c>
     </row>
   </sheetData>
